--- a/BackTest/2019-10-30 BackTest TRX.xlsx
+++ b/BackTest/2019-10-30 BackTest TRX.xlsx
@@ -3461,14 +3461,20 @@
         <v>24.55999999999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3509,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3548,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3587,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3626,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3636,14 +3658,20 @@
         <v>24.52499999999998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3699,20 @@
         <v>24.51499999999998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3706,14 +3740,20 @@
         <v>24.50999999999997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3781,20 @@
         <v>24.49999999999997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3822,20 @@
         <v>24.49499999999997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>24.5</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3811,14 +3863,20 @@
         <v>24.49499999999997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>24.6</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +3911,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +3950,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +3989,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4028,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4067,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4106,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4145,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4184,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4223,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4262,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4301,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4340,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4379,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4418,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4457,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4496,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4535,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4574,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4613,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4652,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4691,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4730,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4769,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4808,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4847,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4886,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4925,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +4964,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4826,18 +4996,16 @@
         <v>24.51999999999997</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -4867,14 +5035,12 @@
         <v>24.50999999999997</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -4908,14 +5074,12 @@
         <v>24.49499999999997</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -4949,14 +5113,12 @@
         <v>24.48499999999997</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -4990,14 +5152,12 @@
         <v>24.46999999999997</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5070,14 +5230,12 @@
         <v>24.42499999999997</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5111,14 +5269,12 @@
         <v>24.39999999999997</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>24.1</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5152,14 +5308,12 @@
         <v>24.38499999999997</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5193,14 +5347,12 @@
         <v>24.37499999999997</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5234,14 +5386,12 @@
         <v>24.36499999999997</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5275,14 +5425,12 @@
         <v>24.35499999999997</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5316,14 +5464,12 @@
         <v>24.33999999999997</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5357,14 +5503,12 @@
         <v>24.32499999999997</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>24.2</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5398,14 +5542,12 @@
         <v>24.31499999999997</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5439,14 +5581,12 @@
         <v>24.30999999999997</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5480,14 +5620,12 @@
         <v>24.30499999999997</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5521,14 +5659,12 @@
         <v>24.29999999999998</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5562,14 +5698,12 @@
         <v>24.29999999999998</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5603,14 +5737,12 @@
         <v>24.29999999999998</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5644,14 +5776,12 @@
         <v>24.29499999999998</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5685,14 +5815,12 @@
         <v>24.28999999999998</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5726,14 +5854,12 @@
         <v>24.28499999999998</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5767,14 +5893,12 @@
         <v>24.27999999999998</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5808,14 +5932,12 @@
         <v>24.28499999999998</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5849,14 +5971,12 @@
         <v>24.29499999999998</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>24.4</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5890,14 +6010,12 @@
         <v>24.30999999999998</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5931,14 +6049,12 @@
         <v>24.32999999999998</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5972,14 +6088,12 @@
         <v>24.34499999999998</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6013,14 +6127,12 @@
         <v>24.35499999999998</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6054,14 +6166,12 @@
         <v>24.36499999999998</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6095,14 +6205,12 @@
         <v>24.37499999999998</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6136,14 +6244,12 @@
         <v>24.39499999999998</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6177,14 +6283,12 @@
         <v>24.41499999999998</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6218,14 +6322,12 @@
         <v>24.42999999999997</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>24.6</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -9850,18 +9952,16 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9889,15 +9989,11 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9932,11 +10028,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9971,11 +10063,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10006,16 +10094,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10113,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -10148,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
@@ -39685,20 +39771,14 @@
         <v>24.51999999999996</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="n">
         <v>0</v>
       </c>
-      <c r="J1106" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr"/>
-      <c r="L1106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L1106" t="inlineStr"/>
       <c r="M1106" t="n">
         <v>1</v>
       </c>
@@ -39726,20 +39806,14 @@
         <v>24.49999999999996</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="n">
         <v>0</v>
       </c>
-      <c r="J1107" t="n">
-        <v>24.3</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
-      <c r="L1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1107" t="inlineStr"/>
       <c r="M1107" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest TRX.xlsx
+++ b/BackTest/2019-10-30 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4980465.3898171</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5010461.0744171</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>24.5</v>
@@ -523,7 +523,7 @@
         <v>5010461.0744171</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>24.6</v>
@@ -562,7 +562,7 @@
         <v>5010461.0744171</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>24.6</v>
@@ -601,9 +601,11 @@
         <v>4833071.5514171</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,7 +640,7 @@
         <v>4833471.5514171</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>24.5</v>
@@ -751,9 +753,11 @@
         <v>4833471.5514171</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24.6</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -7707,11 +7711,9 @@
         <v>9349833.318491248</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7746,11 +7748,9 @@
         <v>9349833.318491248</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>9349833.318491248</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>24.2</v>
@@ -7824,7 +7824,7 @@
         <v>9523086.550152149</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>24.2</v>
@@ -7863,11 +7863,9 @@
         <v>9523086.550152149</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7902,11 +7900,9 @@
         <v>9523086.550152149</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7941,7 +7937,7 @@
         <v>9716158.640152149</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>24.3</v>
@@ -7980,11 +7976,9 @@
         <v>9701708.598614449</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -8019,11 +8013,9 @@
         <v>9701708.598614449</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8058,11 +8050,9 @@
         <v>9701708.598614449</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8171,11 +8161,9 @@
         <v>10429025.50711445</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8210,11 +8198,9 @@
         <v>10429025.50711445</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8360,11 +8346,9 @@
         <v>10694565.54191445</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>24.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -12247,16 +12231,18 @@
         <v>17720660.26198993</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L320" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
       <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
@@ -12286,7 +12272,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12315,11 +12305,15 @@
         <v>17466322.85631171</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12352,7 +12346,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12385,7 +12383,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12418,7 +12420,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12451,7 +12457,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12484,7 +12494,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12517,7 +12531,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12550,7 +12568,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12583,7 +12605,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12612,11 +12638,15 @@
         <v>17249312.31167592</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12645,11 +12675,15 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12678,11 +12712,15 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12711,11 +12749,15 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12744,11 +12786,15 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12777,11 +12823,15 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12810,14 +12860,16 @@
         <v>14571472.77246809</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
@@ -12843,7 +12895,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12876,7 +12928,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12909,7 +12961,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12942,7 +12994,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12975,7 +13027,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13008,7 +13060,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13107,7 +13159,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13338,7 +13390,7 @@
         <v>12031241.02806809</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13404,7 +13456,7 @@
         <v>11051358.08416809</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13437,7 +13489,7 @@
         <v>11051368.08416809</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13470,7 +13522,7 @@
         <v>11051368.08416809</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13503,7 +13555,7 @@
         <v>10962588.88296809</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13536,7 +13588,7 @@
         <v>10962588.88296809</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13569,7 +13621,7 @@
         <v>10962588.88296809</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13602,7 +13654,7 @@
         <v>10962588.88296809</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13668,7 +13720,7 @@
         <v>10962699.87111038</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -16044,7 +16096,7 @@
         <v>14834729.0369058</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16077,7 +16129,7 @@
         <v>14834729.0369058</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16110,7 +16162,7 @@
         <v>14712393.81130579</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16143,7 +16195,7 @@
         <v>14722159.43630579</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16176,7 +16228,7 @@
         <v>14312257.59560579</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16374,7 +16426,7 @@
         <v>14544271.36213079</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16407,7 +16459,7 @@
         <v>14544271.36213079</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16440,7 +16492,7 @@
         <v>14264545.47413079</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16473,7 +16525,7 @@
         <v>14264545.47413079</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16506,7 +16558,7 @@
         <v>14497723.93725279</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16539,7 +16591,7 @@
         <v>13611844.11385279</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16572,7 +16624,7 @@
         <v>13453504.03235279</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16605,7 +16657,7 @@
         <v>13453504.03235279</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16638,7 +16690,7 @@
         <v>13453504.03235279</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16671,7 +16723,7 @@
         <v>12912930.98525279</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16704,7 +16756,7 @@
         <v>12912930.98525279</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16737,7 +16789,7 @@
         <v>12187156.81515279</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16770,7 +16822,7 @@
         <v>12187156.81515279</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -21423,7 +21475,7 @@
         <v>9013876.533990763</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21456,7 +21508,7 @@
         <v>9113737.636690764</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21489,7 +21541,7 @@
         <v>8692826.261190765</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21522,7 +21574,7 @@
         <v>8672139.874890765</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21555,7 +21607,7 @@
         <v>8672139.874890765</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21588,7 +21640,7 @@
         <v>8672139.874890765</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21852,7 +21904,7 @@
         <v>10279426.65589076</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21918,7 +21970,7 @@
         <v>10464670.33399076</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21951,7 +22003,7 @@
         <v>10425212.15359076</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21984,7 +22036,7 @@
         <v>10047079.09429076</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22050,7 +22102,7 @@
         <v>10027525.17009076</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23172,7 +23224,7 @@
         <v>6968471.779681839</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23205,7 +23257,7 @@
         <v>6968471.779681839</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23238,7 +23290,7 @@
         <v>6968471.779681839</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23271,7 +23323,7 @@
         <v>6243185.411981839</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23304,7 +23356,7 @@
         <v>6686808.721181839</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23337,7 +23389,7 @@
         <v>6686808.721181839</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23370,7 +23422,7 @@
         <v>6686740.823181839</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -27429,7 +27481,7 @@
         <v>12356831.9147825</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27462,7 +27514,7 @@
         <v>11210717.05879228</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27495,7 +27547,7 @@
         <v>11594780.99409228</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27528,7 +27580,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27561,7 +27613,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27594,7 +27646,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27627,7 +27679,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27660,7 +27712,7 @@
         <v>10026640.95337397</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27693,7 +27745,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27726,7 +27778,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27759,7 +27811,7 @@
         <v>7321248.798290446</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27792,7 +27844,7 @@
         <v>8703852.618790446</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27825,7 +27877,7 @@
         <v>9634281.132346166</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27858,7 +27910,7 @@
         <v>9006938.555646166</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27891,7 +27943,7 @@
         <v>9021497.942546166</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27924,7 +27976,7 @@
         <v>7290508.652736597</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27957,7 +28009,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27990,7 +28042,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28023,7 +28075,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28056,7 +28108,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28089,7 +28141,7 @@
         <v>7364659.479761116</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28122,7 +28174,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28155,7 +28207,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28188,7 +28240,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28221,7 +28273,7 @@
         <v>7420433.401208617</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28254,7 +28306,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28287,7 +28339,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28320,7 +28372,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28353,7 +28405,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28386,7 +28438,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28419,7 +28471,7 @@
         <v>8671605.370908618</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28452,7 +28504,7 @@
         <v>8464462.294708617</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28485,7 +28537,7 @@
         <v>8464462.294708617</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28518,7 +28570,7 @@
         <v>8464462.294708617</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28551,7 +28603,7 @@
         <v>8527104.574808616</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28584,7 +28636,7 @@
         <v>8527104.574808616</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28617,7 +28669,7 @@
         <v>8527104.574808616</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28650,7 +28702,7 @@
         <v>8416256.975108616</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28683,7 +28735,7 @@
         <v>8416256.975108616</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28716,7 +28768,7 @@
         <v>8416256.975108616</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28749,7 +28801,7 @@
         <v>8416256.975108616</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28782,7 +28834,7 @@
         <v>8402361.314646166</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28815,7 +28867,7 @@
         <v>8402361.314646166</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28848,7 +28900,7 @@
         <v>8723636.543346167</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28881,7 +28933,7 @@
         <v>8512501.753946166</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28914,7 +28966,7 @@
         <v>8136193.601946167</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28947,7 +28999,7 @@
         <v>8136193.601946167</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28980,7 +29032,7 @@
         <v>8805584.146646166</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29013,7 +29065,7 @@
         <v>8728488.403085167</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29046,7 +29098,7 @@
         <v>8728488.403085167</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29079,7 +29131,7 @@
         <v>7591990.719985167</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29112,7 +29164,7 @@
         <v>7597077.270185167</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29145,7 +29197,7 @@
         <v>7597077.270185167</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29178,7 +29230,7 @@
         <v>7597077.270185167</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29211,7 +29263,7 @@
         <v>7597077.270185167</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29244,7 +29296,7 @@
         <v>7588635.559085167</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29277,7 +29329,7 @@
         <v>7588635.559085167</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29310,7 +29362,7 @@
         <v>7588635.559085167</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29343,7 +29395,7 @@
         <v>7841828.025785167</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29376,7 +29428,7 @@
         <v>7662405.471185166</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29409,7 +29461,7 @@
         <v>7662405.471185166</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29442,7 +29494,7 @@
         <v>7662405.471185166</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29475,7 +29527,7 @@
         <v>7662405.471185166</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29508,7 +29560,7 @@
         <v>7554357.758285167</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29541,7 +29593,7 @@
         <v>7554357.758285167</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29574,7 +29626,7 @@
         <v>7554357.758285167</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29607,7 +29659,7 @@
         <v>7338661.406585166</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29640,7 +29692,7 @@
         <v>7372181.386685167</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29673,7 +29725,7 @@
         <v>7372181.386685167</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29706,7 +29758,7 @@
         <v>7702561.437785166</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29739,7 +29791,7 @@
         <v>7854237.225685166</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29772,7 +29824,7 @@
         <v>7854237.225685166</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29805,7 +29857,7 @@
         <v>7854237.225685166</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29838,7 +29890,7 @@
         <v>7657031.663485167</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29871,7 +29923,7 @@
         <v>7678075.304390176</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29904,7 +29956,7 @@
         <v>7580675.304390176</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29937,7 +29989,7 @@
         <v>7580675.304390176</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29970,7 +30022,7 @@
         <v>7514833.046790176</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30003,7 +30055,7 @@
         <v>6857917.420990176</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30036,7 +30088,7 @@
         <v>6858444.378290176</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30069,7 +30121,7 @@
         <v>6927715.567790177</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30102,7 +30154,7 @@
         <v>6926845.804190177</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30135,7 +30187,7 @@
         <v>6926845.804190177</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30168,7 +30220,7 @@
         <v>6926845.804190177</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30267,7 +30319,7 @@
         <v>6864845.217190176</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -37395,10 +37447,14 @@
         <v>-10070459.9807303</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>25.1</v>
+      </c>
       <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
@@ -37431,8 +37487,14 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37464,8 +37526,14 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37791,10 +37859,14 @@
         <v>-10935948.6265303</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>24.8</v>
+      </c>
       <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
@@ -37824,11 +37896,19 @@
         <v>-10935948.6265303</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37857,11 +37937,19 @@
         <v>-10935948.6265303</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37890,11 +37978,19 @@
         <v>-10935948.6265303</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37923,11 +38019,19 @@
         <v>-10935948.6265303</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37959,8 +38063,14 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37989,11 +38099,19 @@
         <v>-11209028.0103303</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -38022,11 +38140,19 @@
         <v>-13063760.40243031</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -38055,11 +38181,19 @@
         <v>-12028700.1617303</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38091,8 +38225,14 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38124,8 +38264,14 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -38157,8 +38303,14 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38190,8 +38342,14 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38223,8 +38381,14 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -38253,11 +38417,19 @@
         <v>-11673344.60323031</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -38286,11 +38458,19 @@
         <v>-12051021.84333031</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -38319,11 +38499,19 @@
         <v>-12051021.84333031</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -38355,8 +38543,14 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -38385,11 +38579,19 @@
         <v>-12051021.84333031</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -38418,11 +38620,19 @@
         <v>-11646466.92123071</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38451,11 +38661,19 @@
         <v>-11646466.92123071</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -38487,8 +38705,14 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38520,8 +38744,14 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -38553,8 +38783,14 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -38583,11 +38819,19 @@
         <v>-11646466.92123071</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -38619,8 +38863,14 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -38649,11 +38899,19 @@
         <v>-11646466.92123071</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38685,8 +38943,14 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38718,8 +38982,14 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38751,8 +39021,14 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38784,8 +39060,14 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38817,8 +39099,14 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38850,8 +39138,14 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38883,8 +39177,14 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38916,8 +39216,14 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -38949,8 +39255,14 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38982,8 +39294,14 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -39015,8 +39333,14 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -39048,8 +39372,14 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -39081,8 +39411,14 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -39114,8 +39450,14 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -39147,8 +39489,14 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -39180,8 +39528,14 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -39213,8 +39567,14 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -39246,8 +39606,14 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -39279,8 +39645,14 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -39312,8 +39684,14 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -39345,8 +39723,14 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -39378,8 +39762,14 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -39411,8 +39801,14 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -39441,11 +39837,19 @@
         <v>-11629927.18901692</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -39474,11 +39878,19 @@
         <v>-11629927.18901692</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -39507,11 +39919,19 @@
         <v>-11628787.26998858</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -39540,11 +39960,19 @@
         <v>-12267523.54418858</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39573,11 +40001,19 @@
         <v>-12211120.11278858</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39606,11 +40042,19 @@
         <v>-12248695.28428858</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39639,11 +40083,19 @@
         <v>-12120269.27108858</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39675,8 +40127,14 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39705,11 +40163,19 @@
         <v>-12162811.80218858</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39738,11 +40204,19 @@
         <v>-12162811.80218858</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39774,8 +40248,14 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39804,11 +40284,19 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39837,11 +40325,19 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39870,11 +40366,19 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39903,11 +40407,19 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39936,11 +40448,19 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39969,11 +40489,19 @@
         <v>-13225170.32758857</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -40002,11 +40530,19 @@
         <v>-13225170.32758857</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -40035,11 +40571,19 @@
         <v>-13225170.32758857</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -40068,11 +40612,19 @@
         <v>-13225170.32758857</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -40101,11 +40653,19 @@
         <v>-13006206.63971644</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -40134,11 +40694,19 @@
         <v>-13006206.63971644</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -40167,11 +40735,19 @@
         <v>-15317047.87211644</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -40200,11 +40776,19 @@
         <v>-16243331.78511645</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -40233,11 +40817,19 @@
         <v>-16243331.78511645</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -40266,11 +40858,19 @@
         <v>-15620013.92681644</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -40299,11 +40899,19 @@
         <v>-15620013.92681644</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -40332,11 +40940,19 @@
         <v>-15625791.40261644</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -40365,11 +40981,19 @@
         <v>-14715104.42581644</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -40398,11 +41022,19 @@
         <v>-14715104.42581644</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -40431,11 +41063,19 @@
         <v>-14704405.49121645</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -40464,11 +41104,19 @@
         <v>-14704405.49121645</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -40497,21 +41145,25 @@
         <v>-14704405.49121645</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1176" t="n">
         <v>24.4</v>
       </c>
       <c r="J1176" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K1176" t="inlineStr"/>
+        <v>24.8</v>
+      </c>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
       <c r="M1176" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest TRX.xlsx
+++ b/BackTest/2019-10-30 BackTest TRX.xlsx
@@ -10681,7 +10681,7 @@
         <v>22803174.61240504</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>20795852.29850503</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>21656187.66049495</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>22262138.47069495</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>18972402.32319381</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>16815032.25439381</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>17720660.26198993</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>18706733.2323296</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>17466322.85631171</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>18116169.41141171</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>18866059.82621171</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>18172390.86047592</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>18172390.86047592</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>18077457.04257593</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>18077457.04257593</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>16418413.74367592</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>16298875.70447592</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>17249312.31167592</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>15306105.17846809</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>15327182.22646809</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>14571472.77246809</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>12618050.44166809</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>12646068.30006809</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>9688457.465790762</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>9406801.509490762</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>9415301.509490762</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>9415301.509490762</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>9472289.899190761</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>11210717.05879228</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>11594780.99409228</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>9580048.009422468</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>9035226.687189138</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>10026640.95337397</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>7595299.166790446</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>9634281.132346166</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>9006938.555646166</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>9021497.942546166</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>7290508.652736597</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>7779443.314661116</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>7546774.928208617</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>7420433.401208617</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>8386088.647708617</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -38203,10 +38203,14 @@
         <v>-11628787.26998858</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>24.6</v>
+      </c>
       <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
@@ -38239,8 +38243,14 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38269,11 +38279,19 @@
         <v>-12211120.11278858</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38302,11 +38320,19 @@
         <v>-12248695.28428858</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +38361,19 @@
         <v>-12120269.27108858</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38371,8 +38405,14 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38404,8 +38444,14 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +38480,19 @@
         <v>-12162811.80218858</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38470,8 +38524,14 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38500,11 +38560,19 @@
         <v>-12178128.61958857</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38539,9 +38607,13 @@
         <v>24.5</v>
       </c>
       <c r="J1156" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="K1156" t="inlineStr"/>
+        <v>24.6</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38576,11 +38648,11 @@
         <v>24.5</v>
       </c>
       <c r="J1157" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1157" t="n">
@@ -38617,11 +38689,11 @@
         <v>24.5</v>
       </c>
       <c r="J1158" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1158" t="n">
@@ -38658,11 +38730,11 @@
         <v>24.5</v>
       </c>
       <c r="J1159" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1159" t="n">
@@ -38699,7 +38771,7 @@
         <v>24.5</v>
       </c>
       <c r="J1160" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -38740,7 +38812,7 @@
         <v>24.3</v>
       </c>
       <c r="J1161" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -38781,7 +38853,7 @@
         <v>24.3</v>
       </c>
       <c r="J1162" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -38822,7 +38894,7 @@
         <v>24.3</v>
       </c>
       <c r="J1163" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -38863,7 +38935,7 @@
         <v>24.3</v>
       </c>
       <c r="J1164" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -38904,7 +38976,7 @@
         <v>24.4</v>
       </c>
       <c r="J1165" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -38939,11 +39011,13 @@
         <v>-15317047.87211644</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>24.4</v>
+      </c>
       <c r="J1166" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -38982,7 +39056,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39023,7 +39097,7 @@
         <v>24.2</v>
       </c>
       <c r="J1168" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39064,7 +39138,7 @@
         <v>24.2</v>
       </c>
       <c r="J1169" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39105,7 +39179,7 @@
         <v>24.3</v>
       </c>
       <c r="J1170" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39146,7 +39220,7 @@
         <v>24.3</v>
       </c>
       <c r="J1171" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39187,7 +39261,7 @@
         <v>24.2</v>
       </c>
       <c r="J1172" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39228,7 +39302,7 @@
         <v>24.3</v>
       </c>
       <c r="J1173" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39269,7 +39343,7 @@
         <v>24.3</v>
       </c>
       <c r="J1174" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39310,7 +39384,7 @@
         <v>24.4</v>
       </c>
       <c r="J1175" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39351,7 +39425,7 @@
         <v>24.4</v>
       </c>
       <c r="J1176" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
